--- a/uploads/schedule.xlsx
+++ b/uploads/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4655E97E-ADAD-4175-BC60-D6C2027C2E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DC7CA1-F1B0-4304-8AE4-4A4F905C43D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>Breakfast/Team meeting
 8:30am-9:00am</t>
@@ -176,6 +176,36 @@
   <si>
     <t xml:space="preserve">Eat Breakfast with the team. Lead the team meeting.
 </t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Eat a donut</t>
+  </si>
+  <si>
+    <t>Hang out with Talmage</t>
+  </si>
+  <si>
+    <t>Watch superman V</t>
+  </si>
+  <si>
+    <t>Dance party</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Cat time</t>
+  </si>
+  <si>
+    <t>Eat the cat???</t>
+  </si>
+  <si>
+    <t>take a nap</t>
+  </si>
+  <si>
+    <t>Lets go fly a kite</t>
   </si>
 </sst>
 </file>
@@ -279,8 +309,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J10" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J11" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0D2A0AC5-E073-4470-A5AF-4AE529709542}" name="Names" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{059843E4-4203-489A-9125-395B7EDFB23C}" name="Breakfast/Team meeting_x000a_8:30am-9:00am" dataDxfId="8"/>
@@ -582,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -922,6 +952,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/uploads/schedule.xlsx
+++ b/uploads/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DC7CA1-F1B0-4304-8AE4-4A4F905C43D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2278352A-911C-4D40-93EF-D586E1F80FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1120" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
   <si>
     <t>Breakfast/Team meeting
 8:30am-9:00am</t>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Lets go fly a kite</t>
+  </si>
+  <si>
+    <t>Group Number</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -309,19 +315,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J11" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0D2A0AC5-E073-4470-A5AF-4AE529709542}" name="Names" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{059843E4-4203-489A-9125-395B7EDFB23C}" name="Breakfast/Team meeting_x000a_8:30am-9:00am" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{54954847-8C1A-475B-92FE-038D3882F1B2}" name="Set up_x000a_9:00am-10:00am" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{DD7B9764-417E-46DC-A5A6-3A08316FF132}" name="Recap training_x000a_10:00am-11:00am" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{B847E702-3E38-472D-A712-0336A7E9CB5C}" name="Set up_x000a_11:00am-12:00pm" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{737D921B-67A0-42F0-B274-E41D6A816423}" name="Eat lunch_x000a_12:00pm-12:30pm" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{69876E2B-29B8-4E31-BB1C-A6C6AF8DCA8D}" name="Prep time_x000a_12:30pm-1:00pm" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{11B70CAB-5CB3-4CE8-84EE-EB470CED9AAE}" name="Check-in/mentor connections_x000a_1:00pm-2:00pm" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{965CCF5A-946B-41AC-8ED2-79BA5BD12BDF}" name="Walk your Schedule tours_x000a_2:00pm-5:00pm" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{CD0ED07A-5FDF-4A35-9706-AD0D17C6E483}" name="Clean up/debrief_x000a_5:00pm-5:30pm" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}" name="Table1" displayName="Table1" ref="A1:K11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K11" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{0D2A0AC5-E073-4470-A5AF-4AE529709542}" name="Names" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{9C5C3732-D9A6-40F4-B748-F6768338DEB7}" name="Group Number" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{059843E4-4203-489A-9125-395B7EDFB23C}" name="Breakfast/Team meeting_x000a_8:30am-9:00am" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{54954847-8C1A-475B-92FE-038D3882F1B2}" name="Set up_x000a_9:00am-10:00am" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{DD7B9764-417E-46DC-A5A6-3A08316FF132}" name="Recap training_x000a_10:00am-11:00am" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{B847E702-3E38-472D-A712-0336A7E9CB5C}" name="Set up_x000a_11:00am-12:00pm" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{737D921B-67A0-42F0-B274-E41D6A816423}" name="Eat lunch_x000a_12:00pm-12:30pm" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{69876E2B-29B8-4E31-BB1C-A6C6AF8DCA8D}" name="Prep time_x000a_12:30pm-1:00pm" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{11B70CAB-5CB3-4CE8-84EE-EB470CED9AAE}" name="Check-in/mentor connections_x000a_1:00pm-2:00pm" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{965CCF5A-946B-41AC-8ED2-79BA5BD12BDF}" name="Walk your Schedule tours_x000a_2:00pm-5:00pm" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{CD0ED07A-5FDF-4A35-9706-AD0D17C6E483}" name="Clean up/debrief_x000a_5:00pm-5:30pm" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -612,375 +619,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="22.36328125" customWidth="1"/>
-    <col min="9" max="9" width="19.7265625" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/uploads/schedule.xlsx
+++ b/uploads/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2278352A-911C-4D40-93EF-D586E1F80FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F13AB-3254-4F38-9A2C-F3D0C5F8B903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1120" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
   <si>
     <t>Breakfast/Team meeting
 8:30am-9:00am</t>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t>Group Number</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>#00FF00</t>
+  </si>
+  <si>
+    <t>#0000FF</t>
   </si>
 </sst>
 </file>
@@ -261,7 +273,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -315,20 +330,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}" name="Table1" displayName="Table1" ref="A1:K11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K11" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{0D2A0AC5-E073-4470-A5AF-4AE529709542}" name="Names" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{9C5C3732-D9A6-40F4-B748-F6768338DEB7}" name="Group Number" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{059843E4-4203-489A-9125-395B7EDFB23C}" name="Breakfast/Team meeting_x000a_8:30am-9:00am" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{54954847-8C1A-475B-92FE-038D3882F1B2}" name="Set up_x000a_9:00am-10:00am" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DD7B9764-417E-46DC-A5A6-3A08316FF132}" name="Recap training_x000a_10:00am-11:00am" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B847E702-3E38-472D-A712-0336A7E9CB5C}" name="Set up_x000a_11:00am-12:00pm" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{737D921B-67A0-42F0-B274-E41D6A816423}" name="Eat lunch_x000a_12:00pm-12:30pm" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{69876E2B-29B8-4E31-BB1C-A6C6AF8DCA8D}" name="Prep time_x000a_12:30pm-1:00pm" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{11B70CAB-5CB3-4CE8-84EE-EB470CED9AAE}" name="Check-in/mentor connections_x000a_1:00pm-2:00pm" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{965CCF5A-946B-41AC-8ED2-79BA5BD12BDF}" name="Walk your Schedule tours_x000a_2:00pm-5:00pm" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{CD0ED07A-5FDF-4A35-9706-AD0D17C6E483}" name="Clean up/debrief_x000a_5:00pm-5:30pm" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}" name="Table1" displayName="Table1" ref="A1:L11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L11" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{0D2A0AC5-E073-4470-A5AF-4AE529709542}" name="Names" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{32D6C94F-D7A9-4B7F-AA69-B3188126792A}" name="Color" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{9C5C3732-D9A6-40F4-B748-F6768338DEB7}" name="Group Number" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{059843E4-4203-489A-9125-395B7EDFB23C}" name="Breakfast/Team meeting_x000a_8:30am-9:00am" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{54954847-8C1A-475B-92FE-038D3882F1B2}" name="Set up_x000a_9:00am-10:00am" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{DD7B9764-417E-46DC-A5A6-3A08316FF132}" name="Recap training_x000a_10:00am-11:00am" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{B847E702-3E38-472D-A712-0336A7E9CB5C}" name="Set up_x000a_11:00am-12:00pm" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{737D921B-67A0-42F0-B274-E41D6A816423}" name="Eat lunch_x000a_12:00pm-12:30pm" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{69876E2B-29B8-4E31-BB1C-A6C6AF8DCA8D}" name="Prep time_x000a_12:30pm-1:00pm" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{11B70CAB-5CB3-4CE8-84EE-EB470CED9AAE}" name="Check-in/mentor connections_x000a_1:00pm-2:00pm" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{965CCF5A-946B-41AC-8ED2-79BA5BD12BDF}" name="Walk your Schedule tours_x000a_2:00pm-5:00pm" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{CD0ED07A-5FDF-4A35-9706-AD0D17C6E483}" name="Clean up/debrief_x000a_5:00pm-5:30pm" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -619,395 +635,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" customWidth="1"/>
-    <col min="10" max="10" width="19.7265625" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" customWidth="1"/>
+    <col min="2" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" customWidth="1"/>
+    <col min="10" max="10" width="22.36328125" customWidth="1"/>
+    <col min="11" max="11" width="19.7265625" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/uploads/schedule.xlsx
+++ b/uploads/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F13AB-3254-4F38-9A2C-F3D0C5F8B903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6510D195-64E0-4A66-8A2E-B6C1842A268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1120" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
   <si>
     <t>Breakfast/Team meeting
 8:30am-9:00am</t>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>#0000FF</t>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -766,7 +769,9 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>10</v>

--- a/uploads/schedule.xlsx
+++ b/uploads/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6510D195-64E0-4A66-8A2E-B6C1842A268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926F9683-2986-4EFF-934F-B6C10F6B2F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1120" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/uploads/schedule.xlsx
+++ b/uploads/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926F9683-2986-4EFF-934F-B6C10F6B2F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F042FA9-8EE7-4EAD-8FE2-91BD0587B086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1120" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>Breakfast/Team meeting
 8:30am-9:00am</t>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>#FFFFFF</t>
+  </si>
+  <si>
+    <t>#000000</t>
   </si>
 </sst>
 </file>
@@ -640,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -919,7 +922,9 @@
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>10</v>

--- a/uploads/schedule.xlsx
+++ b/uploads/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F042FA9-8EE7-4EAD-8FE2-91BD0587B086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB652D3-1665-4389-A699-1A16201803FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1120" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1460" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
   <si>
     <t>Breakfast/Team meeting
 8:30am-9:00am</t>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>#000000</t>
+  </si>
+  <si>
+    <t>Seth Taylor</t>
   </si>
 </sst>
 </file>
@@ -336,8 +339,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}" name="Table1" displayName="Table1" ref="A1:L11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L11" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}" name="Table1" displayName="Table1" ref="A1:L12" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L12" xr:uid="{33112BCE-30F9-413A-91FA-0E393F5095FA}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{0D2A0AC5-E073-4470-A5AF-4AE529709542}" name="Names" dataDxfId="11"/>
     <tableColumn id="12" xr3:uid="{32D6C94F-D7A9-4B7F-AA69-B3188126792A}" name="Color" dataDxfId="10"/>
@@ -641,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,11 +923,9 @@
     </row>
     <row r="8" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -956,21 +957,23 @@
     </row>
     <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>13</v>
@@ -990,7 +993,7 @@
     </row>
     <row r="10" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1022,37 +1025,71 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>45</v>
       </c>
     </row>

--- a/uploads/schedule.xlsx
+++ b/uploads/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB652D3-1665-4389-A699-1A16201803FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC87C2AB-8F9B-4562-B513-206EA50A0519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1460" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
   <si>
     <t>Breakfast/Team meeting
 8:30am-9:00am</t>
@@ -214,9 +214,6 @@
     <t>Color</t>
   </si>
   <si>
-    <t>#FF0000</t>
-  </si>
-  <si>
     <t>#00FF00</t>
   </si>
   <si>
@@ -226,10 +223,28 @@
     <t>#FFFFFF</t>
   </si>
   <si>
-    <t>#000000</t>
-  </si>
-  <si>
     <t>Seth Taylor</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>dark green</t>
+  </si>
+  <si>
+    <t>dark pink</t>
+  </si>
+  <si>
+    <t>light pink</t>
+  </si>
+  <si>
+    <t>lime</t>
   </si>
 </sst>
 </file>
@@ -646,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -741,7 +756,9 @@
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>35</v>
@@ -776,7 +793,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -812,7 +829,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -850,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -888,7 +905,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -923,9 +940,11 @@
     </row>
     <row r="8" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -960,7 +979,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -995,7 +1014,9 @@
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -1029,7 +1050,9 @@
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>10</v>
@@ -1063,7 +1086,9 @@
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>37</v>
